--- a/Oro_Loma_5cm topsoil.xlsx
+++ b/Oro_Loma_5cm topsoil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E700624F-183B-4A51-9092-120B6581A5C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22868F0-7EC3-4C62-9B02-8E28B21774EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BCSUMM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Compartment</t>
   </si>
@@ -45,21 +48,9 @@
     <t>FrnOC</t>
   </si>
   <si>
-    <t>Air</t>
-  </si>
-  <si>
     <t>Length</t>
   </si>
   <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>SubSoil</t>
-  </si>
-  <si>
-    <t>Topsoil</t>
-  </si>
-  <si>
     <t>Porosity</t>
   </si>
   <si>
@@ -87,16 +78,31 @@
     <t>Advection</t>
   </si>
   <si>
-    <t>RootBody</t>
-  </si>
-  <si>
-    <t>RootXylem</t>
-  </si>
-  <si>
-    <t>RootCyl</t>
-  </si>
-  <si>
-    <t>Shoots</t>
+    <t>subsoil</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>topsoil</t>
+  </si>
+  <si>
+    <t>shoots</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>rootbody</t>
+  </si>
+  <si>
+    <t>rootxylem</t>
+  </si>
+  <si>
+    <t>rootcyl</t>
+  </si>
+  <si>
+    <t>Discrete</t>
   </si>
 </sst>
 </file>
@@ -606,18 +612,23 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -975,10 +986,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,60 +1001,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>18</v>
+      <c r="P1" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3">
         <v>11.5824</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <f>0.9144-0.05</f>
         <v>0.86439999999999995</v>
       </c>
@@ -1056,7 +1070,7 @@
       <c r="F2">
         <v>22</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <f>1-M2</f>
         <v>0.99999400000000005</v>
       </c>
@@ -1072,7 +1086,7 @@
       <c r="L2">
         <v>2000</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="N2">
@@ -1080,16 +1094,19 @@
       </c>
       <c r="O2">
         <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3">
         <v>11.5824</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <f>0.9144-0.05</f>
         <v>0.86439999999999995</v>
       </c>
@@ -1125,195 +1142,211 @@
       </c>
       <c r="O3">
         <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="5">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3">
         <v>11.5824</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" s="3">
+        <v>0.05</v>
       </c>
       <c r="D4">
         <v>45.72</v>
       </c>
       <c r="E4">
-        <v>850</v>
+        <v>2605</v>
       </c>
       <c r="F4">
         <v>17</v>
       </c>
       <c r="G4">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
+        <v>0.3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.3</v>
       </c>
       <c r="I4">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="J4">
-        <f>1-(I4+G4)</f>
-        <v>3.8000000000000034E-2</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>5.5</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4" si="0">0.5/(0.000016)</f>
-        <v>31250</v>
+        <v>2000</v>
       </c>
       <c r="N4">
-        <v>1000</v>
+        <v>2605</v>
       </c>
       <c r="O4">
         <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3">
         <v>11.5824</v>
       </c>
-      <c r="C5" s="5">
-        <v>0.05</v>
+      <c r="C5">
+        <v>0.6</v>
       </c>
       <c r="D5">
         <v>45.72</v>
       </c>
       <c r="E5">
-        <v>2605</v>
+        <v>1000</v>
       </c>
       <c r="F5">
         <v>17</v>
       </c>
       <c r="G5">
-        <v>0.3</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.3</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="I5">
-        <v>0.1</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="L5">
-        <v>2000</v>
+        <f t="shared" ref="L5:L6" si="0">0.5/(0.000016)</f>
+        <v>31250</v>
       </c>
       <c r="N5">
-        <v>2605</v>
+        <v>1000</v>
       </c>
       <c r="O5">
         <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3">
         <v>11.5824</v>
       </c>
-      <c r="C6" s="5">
-        <v>50</v>
+      <c r="C6">
+        <v>0.6</v>
       </c>
       <c r="D6">
         <v>45.72</v>
       </c>
+      <c r="E6">
+        <v>1000</v>
+      </c>
       <c r="F6">
         <v>17</v>
       </c>
-      <c r="G6" s="4">
-        <f>3*0.000001</f>
-        <v>3.0000000000000001E-6</v>
+      <c r="G6">
+        <v>0.94199999999999995</v>
       </c>
       <c r="I6">
-        <v>0.1</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L6">
-        <v>3000</v>
-      </c>
-      <c r="M6" s="3">
-        <v>1.9999999999999999E-11</v>
+        <f t="shared" si="0"/>
+        <v>31250</v>
       </c>
       <c r="N6">
-        <v>2605</v>
+        <v>1000</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6" s="3"/>
+      <c r="P6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="5">
+    <row r="7" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="8">
         <v>11.5824</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>0.6</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>45.72</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="7">
         <v>1000</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="7">
         <v>17</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="7">
         <v>0.94199999999999995</v>
       </c>
-      <c r="I7">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="J7">
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="J7" s="7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>6.5</v>
-      </c>
-      <c r="L7">
-        <f t="shared" ref="L7:L8" si="1">0.5/(0.000016)</f>
+      <c r="K7" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="L7" s="7">
+        <f>0.5/(0.000016)</f>
         <v>31250</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="7">
         <v>1000</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="7">
         <v>0</v>
+      </c>
+      <c r="P7" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="5">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3">
         <v>11.5824</v>
       </c>
       <c r="C8">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>45.72</v>
       </c>
       <c r="E8">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="F8">
         <v>17</v>
@@ -1321,17 +1354,21 @@
       <c r="G8">
         <v>0.94199999999999995</v>
       </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
       <c r="I8">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <f>1-(I8+G8)</f>
+        <v>3.8000000000000034E-2</v>
       </c>
       <c r="K8">
         <v>5.5</v>
       </c>
       <c r="L8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L8" si="1">0.5/(0.000016)</f>
         <v>31250</v>
       </c>
       <c r="N8">
@@ -1340,57 +1377,60 @@
       <c r="O8">
         <v>0</v>
       </c>
+      <c r="P8" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="8">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6">
         <v>11.5824</v>
       </c>
       <c r="C9" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="D9" s="6">
+        <v>50</v>
+      </c>
+      <c r="D9" s="4">
         <v>45.72</v>
       </c>
-      <c r="E9" s="6">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
         <v>17</v>
       </c>
-      <c r="G9" s="6">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="G9" s="10">
+        <f>3*0.000001</f>
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="L9" s="4">
+        <v>3000</v>
+      </c>
+      <c r="M9" s="11">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="N9" s="4">
+        <v>2605</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="13">
         <v>1</v>
       </c>
-      <c r="I9" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="L9" s="6">
-        <f>0.5/(0.000016)</f>
-        <v>31250</v>
-      </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6">
-        <v>1000</v>
-      </c>
-      <c r="O9" s="6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+    <row r="10" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
+    <row r="11" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
